--- a/projects/test_building/input/Scenario_VentilationTechnology_EfficiencyClass_MarketShare.xlsx
+++ b/projects/test_building/input/Scenario_VentilationTechnology_EfficiencyClass_MarketShare.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="765" windowWidth="30240" windowHeight="17355"/>
+    <workbookView xWindow="6320" yWindow="770" windowWidth="30240" windowHeight="17360"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -177,7 +177,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -216,134 +216,134 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,17 +699,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" zoomScale="185" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -846,7 +846,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
